--- a/Raw Data/DENU_2023_phenology.xlsx
+++ b/Raw Data/DENU_2023_phenology.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCC computer transfer July 2024\ROA climate project\files for GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTREB\LTREB_Phenology_Demography\Pheno_Demo\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF399457-AB50-4CDB-87F4-86C3E4D59115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC03CB-484A-48D5-9191-9FACC0C03F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenology" sheetId="10" r:id="rId1"/>
     <sheet name="metadata" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -732,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,14 +790,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -817,9 +817,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -857,7 +857,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -963,7 +963,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1105,7 +1105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1119,7 +1119,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="19"/>
     <col min="3" max="3" width="16.5" style="19" customWidth="1"/>
@@ -1127,7 +1127,7 @@
     <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="19"/>
-    <col min="8" max="8" width="10.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" style="19" customWidth="1"/>
     <col min="9" max="9" width="14.25" style="19" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="19" customWidth="1"/>
     <col min="11" max="13" width="9" style="19"/>
@@ -1135,7 +1135,7 @@
     <col min="15" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>58</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="23" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>45092</v>
       </c>
@@ -1223,8 +1223,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
         <v>45098</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1267,8 +1267,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>45098</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1311,8 +1311,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>45098</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1355,8 +1355,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>45098</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1399,8 +1399,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>45098</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -1443,8 +1443,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>45098</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1487,8 +1487,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>45098</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1531,8 +1531,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>45098</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1575,8 +1575,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>45098</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -1619,8 +1619,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>45098</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1663,8 +1663,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <v>45098</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1707,8 +1707,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>45098</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1751,8 +1751,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <v>45098</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -1795,8 +1795,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>45098</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1839,8 +1839,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>45098</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1883,8 +1883,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
         <v>45098</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -1927,8 +1927,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>45098</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -1971,8 +1971,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>45098</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -2015,8 +2015,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>45098</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -2059,8 +2059,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>45098</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -2103,8 +2103,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>45098</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -2147,8 +2147,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
         <v>45098</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -2191,8 +2191,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
         <v>45098</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -2235,8 +2235,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
         <v>45098</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -2279,8 +2279,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>45098</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -2323,8 +2323,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
         <v>45098</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -2367,8 +2367,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>45098</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -2411,8 +2411,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
         <v>45098</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -2455,8 +2455,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>45098</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -2499,8 +2499,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
         <v>45098</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -2543,8 +2543,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
         <v>45098</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -2587,8 +2587,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
         <v>45098</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -2631,8 +2631,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
         <v>45098</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -2675,8 +2675,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
         <v>45098</v>
       </c>
       <c r="B36" s="19" t="s">
@@ -2719,8 +2719,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
         <v>45098</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -2763,8 +2763,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
         <v>45098</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -2807,8 +2807,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
         <v>45098</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -2851,8 +2851,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
         <v>45098</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -2895,8 +2895,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
         <v>45098</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -2939,8 +2939,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
         <v>45100</v>
       </c>
       <c r="B42" s="19" t="s">
@@ -2983,8 +2983,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
         <v>45100</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -3027,8 +3027,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
         <v>45100</v>
       </c>
       <c r="B44" s="19" t="s">
@@ -3071,8 +3071,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
         <v>45100</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -3115,8 +3115,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
         <v>45100</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -3159,8 +3159,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
         <v>45100</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -3203,8 +3203,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
         <v>45100</v>
       </c>
       <c r="B48" s="19" t="s">
@@ -3247,8 +3247,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="24">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
         <v>45100</v>
       </c>
       <c r="B49" s="19" t="s">
@@ -3291,8 +3291,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
         <v>45100</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -3335,8 +3335,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="24">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>45100</v>
       </c>
       <c r="B51" s="19" t="s">
@@ -3379,8 +3379,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
         <v>45100</v>
       </c>
       <c r="B52" s="19" t="s">
@@ -3423,8 +3423,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="24">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
         <v>45100</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -3467,8 +3467,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
         <v>45100</v>
       </c>
       <c r="B54" s="19" t="s">
@@ -3511,8 +3511,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="24">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
         <v>45100</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -3555,8 +3555,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="24">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
         <v>45100</v>
       </c>
       <c r="B56" s="19" t="s">
@@ -3599,8 +3599,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="24">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
         <v>45100</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -3643,8 +3643,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="24">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
         <v>45100</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -3687,8 +3687,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="24">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>45100</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -3731,8 +3731,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="24">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>45100</v>
       </c>
       <c r="B60" s="19" t="s">
@@ -3775,8 +3775,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="24">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>45100</v>
       </c>
       <c r="B61" s="19" t="s">
@@ -3819,8 +3819,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="24">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
         <v>45100</v>
       </c>
       <c r="B62" s="19" t="s">
@@ -3863,8 +3863,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="24">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
         <v>45100</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -3907,8 +3907,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="24">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
         <v>45100</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -3951,8 +3951,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="24">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
         <v>45100</v>
       </c>
       <c r="B65" s="19" t="s">
@@ -3995,8 +3995,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="24">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
         <v>45100</v>
       </c>
       <c r="B66" s="19" t="s">
@@ -4039,8 +4039,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="24">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
         <v>45100</v>
       </c>
       <c r="B67" s="19" t="s">
@@ -4083,8 +4083,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="24">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
         <v>45100</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -4127,8 +4127,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="24">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
         <v>45100</v>
       </c>
       <c r="B69" s="19" t="s">
@@ -4171,8 +4171,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="24">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
         <v>45100</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -4215,8 +4215,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="24">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>45100</v>
       </c>
       <c r="B71" s="19" t="s">
@@ -4259,8 +4259,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="24">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
         <v>45100</v>
       </c>
       <c r="B72" s="19" t="s">
@@ -4303,8 +4303,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="24">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
         <v>45100</v>
       </c>
       <c r="B73" s="19" t="s">
@@ -4347,8 +4347,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="24">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
         <v>45100</v>
       </c>
       <c r="B74" s="19" t="s">
@@ -4391,8 +4391,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="24">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>45100</v>
       </c>
       <c r="B75" s="19" t="s">
@@ -4435,8 +4435,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="24">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
         <v>45100</v>
       </c>
       <c r="B76" s="19" t="s">
@@ -4479,8 +4479,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="24">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
         <v>45100</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -4523,8 +4523,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="24">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
         <v>45100</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -4564,8 +4564,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="24">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
         <v>45100</v>
       </c>
       <c r="B79" s="19" t="s">
@@ -4608,8 +4608,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="24">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
         <v>45100</v>
       </c>
       <c r="B80" s="19" t="s">
@@ -4652,8 +4652,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
         <v>45100</v>
       </c>
       <c r="B81" s="19" t="s">
@@ -4696,8 +4696,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="24">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
         <v>45100</v>
       </c>
       <c r="B82" s="19" t="s">
@@ -4740,8 +4740,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="24">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
         <v>45100</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -4784,8 +4784,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="24">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
         <v>45100</v>
       </c>
       <c r="B84" s="19" t="s">
@@ -4828,8 +4828,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="24">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
         <v>45100</v>
       </c>
       <c r="B85" s="19" t="s">
@@ -4872,8 +4872,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="24">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
         <v>45100</v>
       </c>
       <c r="B86" s="19" t="s">
@@ -4916,8 +4916,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="24">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
         <v>45100</v>
       </c>
       <c r="B87" s="19" t="s">
@@ -4960,8 +4960,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="24">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
         <v>45100</v>
       </c>
       <c r="B88" s="19" t="s">
@@ -5004,8 +5004,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="24">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
         <v>45100</v>
       </c>
       <c r="B89" s="19" t="s">
@@ -5048,8 +5048,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="24">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
         <v>45100</v>
       </c>
       <c r="B90" s="19" t="s">
@@ -5092,8 +5092,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="24">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
         <v>45100</v>
       </c>
       <c r="B91" s="19" t="s">
@@ -5136,8 +5136,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="24">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
         <v>45100</v>
       </c>
       <c r="B92" s="19" t="s">
@@ -5180,8 +5180,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="24">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
         <v>45103</v>
       </c>
       <c r="B93" s="19" t="s">
@@ -5224,8 +5224,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="24">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
         <v>45103</v>
       </c>
       <c r="B94" s="19" t="s">
@@ -5268,8 +5268,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="24">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
         <v>45103</v>
       </c>
       <c r="B95" s="19" t="s">
@@ -5312,8 +5312,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="24">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
         <v>45103</v>
       </c>
       <c r="B96" s="19" t="s">
@@ -5356,8 +5356,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="24">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
         <v>45103</v>
       </c>
       <c r="B97" s="19" t="s">
@@ -5400,8 +5400,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="24">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
         <v>45103</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -5444,8 +5444,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="24">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
         <v>45103</v>
       </c>
       <c r="B99" s="19" t="s">
@@ -5488,8 +5488,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="24">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
         <v>45103</v>
       </c>
       <c r="B100" s="19" t="s">
@@ -5532,8 +5532,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="24">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
         <v>45103</v>
       </c>
       <c r="B101" s="19" t="s">
@@ -5576,8 +5576,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="24">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
         <v>45103</v>
       </c>
       <c r="B102" s="19" t="s">
@@ -5620,8 +5620,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="24">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
         <v>45103</v>
       </c>
       <c r="B103" s="19" t="s">
@@ -5664,8 +5664,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="24">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
         <v>45103</v>
       </c>
       <c r="B104" s="19" t="s">
@@ -5708,8 +5708,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="24">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
         <v>45103</v>
       </c>
       <c r="B105" s="19" t="s">
@@ -5752,8 +5752,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="24">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
         <v>45103</v>
       </c>
       <c r="B106" s="19" t="s">
@@ -5796,8 +5796,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="24">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
         <v>45103</v>
       </c>
       <c r="B107" s="19" t="s">
@@ -5840,8 +5840,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="24">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
         <v>45103</v>
       </c>
       <c r="B108" s="19" t="s">
@@ -5884,8 +5884,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="24">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
         <v>45103</v>
       </c>
       <c r="B109" s="19" t="s">
@@ -5928,8 +5928,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="24">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
         <v>45103</v>
       </c>
       <c r="B110" s="19" t="s">
@@ -5972,8 +5972,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="24">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
         <v>45103</v>
       </c>
       <c r="B111" s="19" t="s">
@@ -6016,8 +6016,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="24">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="23">
         <v>45103</v>
       </c>
       <c r="B112" s="19" t="s">
@@ -6060,8 +6060,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="24">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
         <v>45103</v>
       </c>
       <c r="B113" s="19" t="s">
@@ -6104,8 +6104,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="24">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
         <v>45103</v>
       </c>
       <c r="B114" s="19" t="s">
@@ -6148,8 +6148,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="24">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
         <v>45103</v>
       </c>
       <c r="B115" s="19" t="s">
@@ -6192,8 +6192,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="24">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
         <v>45103</v>
       </c>
       <c r="B116" s="19" t="s">
@@ -6236,8 +6236,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="24">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
         <v>45103</v>
       </c>
       <c r="B117" s="19" t="s">
@@ -6280,8 +6280,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="24">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
         <v>45103</v>
       </c>
       <c r="B118" s="19" t="s">
@@ -6324,8 +6324,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="24">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
         <v>45103</v>
       </c>
       <c r="B119" s="19" t="s">
@@ -6368,8 +6368,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="24">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
         <v>45103</v>
       </c>
       <c r="B120" s="19" t="s">
@@ -6412,8 +6412,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="24">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="23">
         <v>45103</v>
       </c>
       <c r="B121" s="19" t="s">
@@ -6456,8 +6456,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="24">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
         <v>45103</v>
       </c>
       <c r="B122" s="19" t="s">
@@ -6500,8 +6500,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="24">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
         <v>45103</v>
       </c>
       <c r="B123" s="19" t="s">
@@ -6544,8 +6544,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="24">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
         <v>45103</v>
       </c>
       <c r="B124" s="19" t="s">
@@ -6588,8 +6588,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" s="24">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
         <v>45103</v>
       </c>
       <c r="B125" s="19" t="s">
@@ -6632,8 +6632,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" s="24">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
         <v>45103</v>
       </c>
       <c r="B126" s="19" t="s">
@@ -6676,8 +6676,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="24">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="23">
         <v>45103</v>
       </c>
       <c r="B127" s="19" t="s">
@@ -6720,8 +6720,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="24">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="23">
         <v>45103</v>
       </c>
       <c r="B128" s="19" t="s">
@@ -6764,8 +6764,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="24">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
         <v>45103</v>
       </c>
       <c r="B129" s="19" t="s">
@@ -6808,8 +6808,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="24">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="23">
         <v>45103</v>
       </c>
       <c r="B130" s="19" t="s">
@@ -6852,8 +6852,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="24">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
         <v>45103</v>
       </c>
       <c r="B131" s="19" t="s">
@@ -6896,8 +6896,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="24">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="23">
         <v>45103</v>
       </c>
       <c r="B132" s="19" t="s">
@@ -6940,8 +6940,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="24">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="23">
         <v>45103</v>
       </c>
       <c r="B133" s="19" t="s">
@@ -6984,8 +6984,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="24">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="23">
         <v>45103</v>
       </c>
       <c r="B134" s="19" t="s">
@@ -7028,8 +7028,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="24">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
         <v>45103</v>
       </c>
       <c r="B135" s="19" t="s">
@@ -7072,8 +7072,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="24">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="23">
         <v>45103</v>
       </c>
       <c r="B136" s="19" t="s">
@@ -7116,8 +7116,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="24">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
         <v>45103</v>
       </c>
       <c r="B137" s="19" t="s">
@@ -7160,8 +7160,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="24">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="23">
         <v>45103</v>
       </c>
       <c r="B138" s="19" t="s">
@@ -7204,8 +7204,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="24">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="23">
         <v>45103</v>
       </c>
       <c r="B139" s="19" t="s">
@@ -7248,8 +7248,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="24">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="23">
         <v>45103</v>
       </c>
       <c r="B140" s="19" t="s">
@@ -7292,8 +7292,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="24">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="23">
         <v>45103</v>
       </c>
       <c r="B141" s="19" t="s">
@@ -7336,8 +7336,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="24">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="23">
         <v>45103</v>
       </c>
       <c r="B142" s="19" t="s">
@@ -7380,8 +7380,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="24">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="23">
         <v>45103</v>
       </c>
       <c r="B143" s="19" t="s">
@@ -7424,8 +7424,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="24">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="23">
         <v>45105</v>
       </c>
       <c r="B144" s="19" t="s">
@@ -7468,8 +7468,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" s="24">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="23">
         <v>45105</v>
       </c>
       <c r="B145" s="19" t="s">
@@ -7512,8 +7512,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" s="24">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="23">
         <v>45105</v>
       </c>
       <c r="B146" s="19" t="s">
@@ -7556,8 +7556,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" s="24">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="23">
         <v>45105</v>
       </c>
       <c r="B147" s="19" t="s">
@@ -7600,8 +7600,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" s="24">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="23">
         <v>45105</v>
       </c>
       <c r="B148" s="19" t="s">
@@ -7640,12 +7640,12 @@
       <c r="M148" s="19">
         <v>1</v>
       </c>
-      <c r="N148" s="25" t="s">
+      <c r="N148" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" s="24">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
         <v>45105</v>
       </c>
       <c r="B149" s="19" t="s">
@@ -7688,8 +7688,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" s="24">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="23">
         <v>45105</v>
       </c>
       <c r="B150" s="19" t="s">
@@ -7732,8 +7732,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" s="24">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="23">
         <v>45105</v>
       </c>
       <c r="B151" s="19" t="s">
@@ -7776,8 +7776,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" s="24">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="23">
         <v>45105</v>
       </c>
       <c r="B152" s="19" t="s">
@@ -7820,8 +7820,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" s="24">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="23">
         <v>45105</v>
       </c>
       <c r="B153" s="19" t="s">
@@ -7864,8 +7864,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" s="24">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="23">
         <v>45105</v>
       </c>
       <c r="B154" s="19" t="s">
@@ -7908,8 +7908,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="24">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
         <v>45105</v>
       </c>
       <c r="B155" s="19" t="s">
@@ -7952,8 +7952,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="24">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="23">
         <v>45105</v>
       </c>
       <c r="B156" s="19" t="s">
@@ -7996,8 +7996,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" s="24">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
         <v>45105</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -8040,8 +8040,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="24">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
         <v>45105</v>
       </c>
       <c r="B158" s="19" t="s">
@@ -8084,8 +8084,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" s="24">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
         <v>45105</v>
       </c>
       <c r="B159" s="19" t="s">
@@ -8128,8 +8128,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" s="24">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="23">
         <v>45105</v>
       </c>
       <c r="B160" s="19" t="s">
@@ -8172,8 +8172,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" s="24">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
         <v>45105</v>
       </c>
       <c r="B161" s="19" t="s">
@@ -8216,8 +8216,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="24">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="23">
         <v>45105</v>
       </c>
       <c r="B162" s="19" t="s">
@@ -8260,8 +8260,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="24">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="23">
         <v>45105</v>
       </c>
       <c r="B163" s="19" t="s">
@@ -8304,8 +8304,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="24">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
         <v>45105</v>
       </c>
       <c r="B164" s="19" t="s">
@@ -8348,8 +8348,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="24">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
         <v>45105</v>
       </c>
       <c r="B165" s="19" t="s">
@@ -8392,8 +8392,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="24">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="23">
         <v>45105</v>
       </c>
       <c r="B166" s="19" t="s">
@@ -8436,8 +8436,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="24">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="23">
         <v>45105</v>
       </c>
       <c r="B167" s="19" t="s">
@@ -8480,8 +8480,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" s="24">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="23">
         <v>45105</v>
       </c>
       <c r="B168" s="19" t="s">
@@ -8524,8 +8524,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="24">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="23">
         <v>45105</v>
       </c>
       <c r="B169" s="19" t="s">
@@ -8568,8 +8568,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="24">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
         <v>45105</v>
       </c>
       <c r="B170" s="19" t="s">
@@ -8612,8 +8612,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="24">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="23">
         <v>45105</v>
       </c>
       <c r="B171" s="19" t="s">
@@ -8656,8 +8656,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="24">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="23">
         <v>45105</v>
       </c>
       <c r="B172" s="19" t="s">
@@ -8700,8 +8700,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="24">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="23">
         <v>45105</v>
       </c>
       <c r="B173" s="19" t="s">
@@ -8744,8 +8744,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="24">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="23">
         <v>45105</v>
       </c>
       <c r="B174" s="19" t="s">
@@ -8788,8 +8788,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="24">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="23">
         <v>45105</v>
       </c>
       <c r="B175" s="19" t="s">
@@ -8832,8 +8832,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="24">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="23">
         <v>45105</v>
       </c>
       <c r="B176" s="19" t="s">
@@ -8876,8 +8876,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="24">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="23">
         <v>45105</v>
       </c>
       <c r="B177" s="19" t="s">
@@ -8920,8 +8920,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="24">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="23">
         <v>45105</v>
       </c>
       <c r="B178" s="19" t="s">
@@ -8964,8 +8964,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="24">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="23">
         <v>45105</v>
       </c>
       <c r="B179" s="19" t="s">
@@ -9008,8 +9008,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="24">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="23">
         <v>45105</v>
       </c>
       <c r="B180" s="19" t="s">
@@ -9052,8 +9052,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="24">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="23">
         <v>45105</v>
       </c>
       <c r="B181" s="19" t="s">
@@ -9096,8 +9096,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="24">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="23">
         <v>45105</v>
       </c>
       <c r="B182" s="19" t="s">
@@ -9140,8 +9140,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="24">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="23">
         <v>45105</v>
       </c>
       <c r="B183" s="19" t="s">
@@ -9184,8 +9184,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="24">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="23">
         <v>45105</v>
       </c>
       <c r="B184" s="19" t="s">
@@ -9228,8 +9228,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="24">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="23">
         <v>45105</v>
       </c>
       <c r="B185" s="19" t="s">
@@ -9272,8 +9272,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="24">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="23">
         <v>45105</v>
       </c>
       <c r="B186" s="19" t="s">
@@ -9316,8 +9316,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="24">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="23">
         <v>45105</v>
       </c>
       <c r="B187" s="19" t="s">
@@ -9360,8 +9360,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="24">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
         <v>45105</v>
       </c>
       <c r="B188" s="19" t="s">
@@ -9404,8 +9404,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="24">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="23">
         <v>45105</v>
       </c>
       <c r="B189" s="19" t="s">
@@ -9448,8 +9448,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A190" s="24">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="23">
         <v>45107</v>
       </c>
       <c r="B190" s="19" t="s">
@@ -9492,8 +9492,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="24">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="23">
         <v>45107</v>
       </c>
       <c r="B191" s="19" t="s">
@@ -9532,12 +9532,12 @@
       <c r="M191" s="19">
         <v>1</v>
       </c>
-      <c r="N191" s="25" t="s">
+      <c r="N191" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="24">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="23">
         <v>45107</v>
       </c>
       <c r="B192" s="19" t="s">
@@ -9580,8 +9580,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="24">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="23">
         <v>45107</v>
       </c>
       <c r="B193" s="19" t="s">
@@ -9624,8 +9624,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="24">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="23">
         <v>45107</v>
       </c>
       <c r="B194" s="19" t="s">
@@ -9668,8 +9668,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="24">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="23">
         <v>45107</v>
       </c>
       <c r="B195" s="19" t="s">
@@ -9712,8 +9712,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="24">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="23">
         <v>45107</v>
       </c>
       <c r="B196" s="19" t="s">
@@ -9756,8 +9756,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="24">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="23">
         <v>45107</v>
       </c>
       <c r="B197" s="19" t="s">
@@ -9800,8 +9800,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="24">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="23">
         <v>45107</v>
       </c>
       <c r="B198" s="19" t="s">
@@ -9844,8 +9844,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A199" s="24">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="23">
         <v>45107</v>
       </c>
       <c r="B199" s="19" t="s">
@@ -9888,8 +9888,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A200" s="24">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="23">
         <v>45107</v>
       </c>
       <c r="B200" s="19" t="s">
@@ -9932,8 +9932,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A201" s="24">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="23">
         <v>45107</v>
       </c>
       <c r="B201" s="19" t="s">
@@ -9976,8 +9976,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A202" s="24">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="23">
         <v>45107</v>
       </c>
       <c r="B202" s="19" t="s">
@@ -10020,8 +10020,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A203" s="24">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="23">
         <v>45107</v>
       </c>
       <c r="B203" s="19" t="s">
@@ -10064,8 +10064,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A204" s="24">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="23">
         <v>45107</v>
       </c>
       <c r="B204" s="19" t="s">
@@ -10108,8 +10108,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A205" s="24">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="23">
         <v>45107</v>
       </c>
       <c r="B205" s="19" t="s">
@@ -10152,8 +10152,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A206" s="24">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="23">
         <v>45107</v>
       </c>
       <c r="B206" s="19" t="s">
@@ -10196,8 +10196,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A207" s="24">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="23">
         <v>45107</v>
       </c>
       <c r="B207" s="19" t="s">
@@ -10240,8 +10240,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A208" s="24">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="23">
         <v>45107</v>
       </c>
       <c r="B208" s="19" t="s">
@@ -10284,8 +10284,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A209" s="24">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="23">
         <v>45107</v>
       </c>
       <c r="B209" s="19" t="s">
@@ -10328,8 +10328,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A210" s="24">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="23">
         <v>45107</v>
       </c>
       <c r="B210" s="19" t="s">
@@ -10372,8 +10372,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A211" s="24">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" s="23">
         <v>45107</v>
       </c>
       <c r="B211" s="19" t="s">
@@ -10416,8 +10416,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A212" s="24">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
         <v>45107</v>
       </c>
       <c r="B212" s="19" t="s">
@@ -10460,8 +10460,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A213" s="24">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="23">
         <v>45107</v>
       </c>
       <c r="B213" s="19" t="s">
@@ -10504,8 +10504,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A214" s="24">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="23">
         <v>45107</v>
       </c>
       <c r="B214" s="19" t="s">
@@ -10548,8 +10548,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A215" s="24">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="23">
         <v>45107</v>
       </c>
       <c r="B215" s="19" t="s">
@@ -10592,8 +10592,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A216" s="24">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="23">
         <v>45107</v>
       </c>
       <c r="B216" s="19" t="s">
@@ -10636,8 +10636,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A217" s="24">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="23">
         <v>45107</v>
       </c>
       <c r="B217" s="19" t="s">
@@ -10680,8 +10680,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A218" s="24">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="23">
         <v>45107</v>
       </c>
       <c r="B218" s="19" t="s">
@@ -10724,8 +10724,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A219" s="24">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A219" s="23">
         <v>45107</v>
       </c>
       <c r="B219" s="19" t="s">
@@ -10768,8 +10768,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A220" s="24">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="23">
         <v>45107</v>
       </c>
       <c r="B220" s="19" t="s">
@@ -10812,8 +10812,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A221" s="24">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="23">
         <v>45107</v>
       </c>
       <c r="B221" s="19" t="s">
@@ -10856,8 +10856,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A222" s="24">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="23">
         <v>45107</v>
       </c>
       <c r="B222" s="19" t="s">
@@ -10900,8 +10900,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A223" s="24">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="23">
         <v>45107</v>
       </c>
       <c r="B223" s="19" t="s">
@@ -10944,8 +10944,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A224" s="24">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="23">
         <v>45107</v>
       </c>
       <c r="B224" s="19" t="s">
@@ -10988,8 +10988,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A225" s="24">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="23">
         <v>45107</v>
       </c>
       <c r="B225" s="19" t="s">
@@ -11032,8 +11032,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A226" s="24">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="23">
         <v>45107</v>
       </c>
       <c r="B226" s="19" t="s">
@@ -11076,8 +11076,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A227" s="24">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A227" s="23">
         <v>45107</v>
       </c>
       <c r="B227" s="19" t="s">
@@ -11120,8 +11120,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A228" s="24">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="23">
         <v>45107</v>
       </c>
       <c r="B228" s="19" t="s">
@@ -11164,8 +11164,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A229" s="24">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="23">
         <v>45107</v>
       </c>
       <c r="B229" s="19" t="s">
@@ -11208,8 +11208,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A230" s="24">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="23">
         <v>45107</v>
       </c>
       <c r="B230" s="19" t="s">
@@ -11252,8 +11252,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A231" s="24">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="23">
         <v>45107</v>
       </c>
       <c r="B231" s="19" t="s">
@@ -11296,8 +11296,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A232" s="24">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="23">
         <v>45107</v>
       </c>
       <c r="B232" s="19" t="s">
@@ -11340,8 +11340,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A233" s="24">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="23">
         <v>45107</v>
       </c>
       <c r="B233" s="19" t="s">
@@ -11384,8 +11384,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A234" s="24">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="23">
         <v>45107</v>
       </c>
       <c r="B234" s="19" t="s">
@@ -11428,8 +11428,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A235" s="24">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="23">
         <v>45107</v>
       </c>
       <c r="B235" s="19" t="s">
@@ -11473,7 +11473,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R237">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R237">
     <sortCondition ref="A2:A237"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11489,19 +11489,19 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="20.08203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="12"/>
-    <col min="5" max="5" width="17.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="41.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="42.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="10.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>94</v>
       </c>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>100</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>100</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>100</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>100</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>100</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>100</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>100</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>100</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>100</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>100</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>100</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>100</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>100</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>100</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>100</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>100</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>100</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>100</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>100</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>100</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>100</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>100</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>100</v>
       </c>
@@ -12062,12 +12062,12 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>162</v>
       </c>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>162</v>
       </c>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>162</v>
       </c>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>162</v>
       </c>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>162</v>
       </c>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>162</v>
       </c>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>162</v>
       </c>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>162</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>162</v>
       </c>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>162</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>162</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>181</v>
       </c>
@@ -12520,20 +12520,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9ea4a38b-8811-4417-ad95-e83ecafd41d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9ea4a38b-8811-4417-ad95-e83ecafd41d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12556,14 +12556,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C69716-2B2D-4531-8CF9-E2A8C10FD6A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12578,4 +12570,12 @@
     <ds:schemaRef ds:uri="9ea4a38b-8811-4417-ad95-e83ecafd41d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>